--- a/GANTT.xlsx
+++ b/GANTT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\-Tool-for-Data-Collection-Analysis-and-Visualization-in-Unity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4772FE-B7E8-4CEC-8F56-2763277C19BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38782C6D-0B89-423A-8093-F8C465C9045A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{14FAC0FD-15CF-4F07-8FBA-0A8D16248C29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14FAC0FD-15CF-4F07-8FBA-0A8D16248C29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,6 +1526,12 @@
       <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
       <c r="G40" s="9"/>
       <c r="N40" s="9"/>
       <c r="Q40" s="9"/>
@@ -1537,6 +1543,12 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
       <c r="G41" s="9"/>
       <c r="N41" s="9"/>
       <c r="Q41" s="9"/>
@@ -1548,6 +1560,12 @@
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
       <c r="G42" s="9"/>
       <c r="N42" s="9"/>
       <c r="Q42" s="9"/>
